--- a/scriptoutput_PRICEFOCUS.xlsx
+++ b/scriptoutput_PRICEFOCUS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Desktop\boeing-case-script\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryanwon7\Desktop\boeing-case-script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F47B53-3F19-4F66-A930-71462A553BF5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB12A787-1716-42F9-958D-CBF6D05F3FFE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exported Data" sheetId="1" r:id="rId1"/>
@@ -186,9 +186,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,25 +492,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.26953125" customWidth="1"/>
+    <col min="6" max="6" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -538,7 +539,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -567,7 +568,7 @@
         <v>4911562.5000000009</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -596,7 +597,7 @@
         <v>281137.50000000012</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -625,7 +626,7 @@
         <v>3003300</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -654,7 +655,7 @@
         <v>403970.00000000012</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -683,7 +684,7 @@
         <v>1220000</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -712,7 +713,7 @@
         <v>294000</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -741,7 +742,7 @@
         <v>530000</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -770,7 +771,7 @@
         <v>145000</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -799,7 +800,7 @@
         <v>683220.00000000012</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -828,7 +829,7 @@
         <v>520000</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -857,7 +858,7 @@
         <v>857012.49999999953</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -886,7 +887,7 @@
         <v>16800</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -915,7 +916,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -944,7 +945,7 @@
         <v>75625.000000000015</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -973,7 +974,7 @@
         <v>715749.99999999965</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -1002,7 +1003,7 @@
         <v>349000</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -1031,7 +1032,7 @@
         <v>2134650</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -1060,7 +1061,7 @@
         <v>242400</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F20">
         <f>AVERAGE(F2:F19)</f>
         <v>98.977777777777789</v>
@@ -1076,6 +1077,21 @@
       <c r="I20" s="1">
         <f>SUM(I2:I19)</f>
         <v>16384567.500000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H21" s="2">
+        <f>H20+3750000</f>
+        <v>19454940</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G23">
+        <v>19628940</v>
+      </c>
+      <c r="H23" s="2">
+        <f>G23-H21</f>
+        <v>174000</v>
       </c>
     </row>
   </sheetData>
